--- a/DOM_Banner/output/dept_banner/Nathan Copeland_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Nathan Copeland_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,360 +360,164 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>authors_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>ab</t>
+          <t>publication_date</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>publication_date</t>
+          <t>so</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>so</t>
+          <t>host_organization</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>so_id</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>host_organization</t>
+          <t>license</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>issn_l</t>
+          <t>version</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>oa_status</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pdf_url</t>
+          <t>language</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>license</t>
+          <t>cited_by_count</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>version</t>
+          <t>publication_year</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>first_page</t>
+          <t>pmid</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>last_page</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>issue</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>is_oa_anywhere</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>oa_status</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>oa_url</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>any_repository_has_fulltext</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>language</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>grants</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_count</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>publication_year</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>cited_by_api_url</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>ids</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>doi</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
           <t>type</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>referenced_works</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>related_works</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>is_paratext</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>is_retracted</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>Ovidiu Tatar, Amal Abdel‐Baki, Alina Dyachenko, Hamzah Bakouni, Arash Bahremand, Philip G. Tibbo, David Crockford, Marc‐André Roy, Jan Copeland, Benedikt Fischer, Tania Lecomte, José Côté, Clairélaine Ouellet‐Plamondon, Sophie L’Heureux, Marie Villeneuve, Didier Jutras‐Aswad</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380190442</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>Evaluating preferences for online psychological interventions to decrease cannabis use in young adults with psychosis: An observational study</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>list(au_id = c("https://openalex.org/A5060155896", "https://openalex.org/A5019404104", "https://openalex.org/A5062813721", "https://openalex.org/A5082743277", "https://openalex.org/A5015978979", "https://openalex.org/A5050710884", "https://openalex.org/A5071505314", "https://openalex.org/A5090820982", "https://openalex.org/A5078615009", "https://openalex.org/A5031049285", "https://openalex.org/A5080538069", "https://openalex.org/A5036688307", "https://openalex.org/A5008221418", "https://openalex.org/A5017947759", 
-"https://openalex.org/A5061828881", "https://openalex.org/A5061218451"), au_display_name = c("Ovidiu Tatar", "Amal Abdel‐Baki", "Alina Dyachenko", "Hamzah Bakouni", "Arash Bahremand", "Philip G. Tibbo", "David Crockford", "Marc‐André Roy", "Jan Copeland", "Benedikt Fischer", "Tania Lecomte", "José Côté", "Clairélaine Ouellet‐Plamondon", "Sophie L’Heureux", "Marie Villeneuve", "Didier Jutras‐Aswad"), au_orcid = c("https://orcid.org/0000-0003-1886-6390", "https://orcid.org/0000-0003-3333-9652", 
-"https://orcid.org/0000-0003-4321-7632", "https://orcid.org/0000-0001-5403-380X", NA, "https://orcid.org/0000-0002-2070-6495", "https://orcid.org/0000-0001-9938-7388", "https://orcid.org/0000-0002-0123-6651", "https://orcid.org/0000-0002-6525-7929", "https://orcid.org/0000-0002-2186-4030", "https://orcid.org/0000-0002-0340-3759", "https://orcid.org/0000-0002-0617-2861", "https://orcid.org/0000-0001-7450-4496", "https://orcid.org/0000-0001-7849-5179", "https://orcid.org/0000-0002-0248-1181", "https://orcid.org/0000-0002-8474-508X"
-), author_position = c("first", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "middle", "last"), au_affiliation_raw = c("Department of Psychiatry and Addiction, Faculty of Medicine, Université de Montréal, Montreal, QC, Canada; Lady Davis Institute for Medical Research, Jewish General Hospital, Montreal, QC, Canada; Research Center, Centre Hospitalier de l'Université de Montréal (CRCHUM), Montreal, QC, Canada", 
-"Department of Psychiatry and Addiction, Faculty of Medicine, Université de Montréal, Montreal, QC, Canada; Research Center, Centre Hospitalier de l'Université de Montréal (CRCHUM), Montreal, QC, Canada", "Research Center, Centre Hospitalier de l'Université de Montréal (CRCHUM), Montreal, QC, Canada", "Department of Psychiatry and Addiction, Faculty of Medicine, Université de Montréal, Montreal, QC, Canada; Research Center, Centre Hospitalier de l'Université de Montréal (CRCHUM), Montreal, QC, Canada", 
-"Department of Psychiatry and Addiction, Faculty of Medicine, Université de Montréal, Montreal, QC, Canada; Research Center, Centre Hospitalier de l'Université de Montréal (CRCHUM), Montreal, QC, Canada", "Department of Psychiatry, Dalhousie University, Halifax, NS, Canada; Nova Scotia Early Psychosis Program, Halifax, NS, Canada", "Department of Psychiatry, University of Calgary, Calgary, AB, Canada", "Clinique Notre-Dame des Victoires, Institut Universitaire en Santé Mentale, Centre Intégré Universitaire de Soins et Services Sociaux de la Capitale Nationale, Québec, QC, Canada; Department of Psychiatry and Neurosciences, Faculty of Medicine, Laval University, Québec, QC, Canada", 
-"National Drug and Alcohol Research Centre, University of New South Wales, Sydney, New South Wales, Australia; Sunshine Coast Mind and Neuroscience - Thompson Institute, University of the Sunshine Coast, Queensland, Australia", "Centre for Applied Research in Mental Health and Addiction, Faculty of Health Sciences, Simon Fraser University, Vancouver, Canada; Department of Psychiatry, Federal University of Sao Paulo, Sao Paulo, Brazil; Department of Psychiatry, University of Toronto, Toronto, ON, Canada; Schools of Population Health and Pharmacy, Faculty of Medical and Health Sciences, University of Auckland, Auckland, New Zealand", 
-"Centre de Recherche de l'Institut Universitaire en Santé Mentale de Montréal, Montreal, QC, Canada; Department of Psychology, University of Montreal, Montreal, QC, Canada", "Faculty of Nursing, Université de Montréal, Montreal, QC, Canada; Research Center, Centre Hospitalier de l'Université de Montréal (CRCHUM), Montreal, QC, Canada", "Department of Psychiatry and Addiction, Faculty of Medicine, Université de Montréal, Montreal, QC, Canada; Research Center, Centre Hospitalier de l'Université de Montréal (CRCHUM), Montreal, QC, Canada", 
-"Clinique Notre-Dame des Victoires, Institut Universitaire en Santé Mentale, Centre Intégré Universitaire de Soins et Services Sociaux de la Capitale Nationale, Québec, QC, Canada; Department of Psychiatry and Neurosciences, Faculty of Medicine, Laval University, Québec, QC, Canada", "Department of Psychiatry and Addiction, Faculty of Medicine, Université de Montréal, Montreal, QC, Canada", "Department of Psychiatry and Addiction, Faculty of Medicine, Université de Montréal, Montreal, QC, Canada; Institut universitaire sur les dépendances, Montreal, QC, Canada; Research Center, Centre Hospitalier de l'Université de Montréal (CRCHUM), Montreal, QC, Canada"
-), institution_id = c("https://openalex.org/I4210142730", "https://openalex.org/I4210142730", "https://openalex.org/I4210142730", "https://openalex.org/I4210142730", "https://openalex.org/I4210142730", "https://openalex.org/I129902397", "https://openalex.org/I168635309", "https://openalex.org/I4210155492", "https://openalex.org/I31746571", "https://openalex.org/I88273585", "https://openalex.org/I70931966", "https://openalex.org/I4210142730", "https://openalex.org/I4210142730", "https://openalex.org/I4210155492", 
-"https://openalex.org/I70931966", "https://openalex.org/I4210142730"), institution_display_name = c("Centre Hospitalier de l’Université de Montréal", "Centre Hospitalier de l’Université de Montréal", "Centre Hospitalier de l’Université de Montréal", "Centre Hospitalier de l’Université de Montréal", "Centre Hospitalier de l’Université de Montréal", "Dalhousie University", "University of Calgary", "Centres Intégré Universitaires de Santé et de Services Sociaux", "UNSW Sydney", 
-"Universidade Federal de São Paulo", "Université de Montréal", "Centre Hospitalier de l’Université de Montréal", "Centre Hospitalier de l’Université de Montréal", "Centres Intégré Universitaires de Santé et de Services Sociaux", "Université de Montréal", "Centre Hospitalier de l’Université de Montréal"), institution_ror = c("https://ror.org/0410a8y51", "https://ror.org/0410a8y51", "https://ror.org/0410a8y51", "https://ror.org/0410a8y51", "https://ror.org/0410a8y51", "https://ror.org/01e6qks80", 
-"https://ror.org/03yjb2x39", "https://ror.org/041c8tt83", "https://ror.org/03r8z3t63", "https://ror.org/02k5swt12", "https://ror.org/0161xgx34", "https://ror.org/0410a8y51", "https://ror.org/0410a8y51", "https://ror.org/041c8tt83", "https://ror.org/0161xgx34", "https://ror.org/0410a8y51"), institution_country_code = c("CA", "CA", "CA", "CA", "CA", "CA", "CA", "CA", "AU", "BR", "CA", "CA", "CA", "CA", "CA", "CA"), institution_type = c("healthcare", "healthcare", "healthcare", "healthcare", "healthcare", 
-"education", "education", "government", "education", "education", "education", "healthcare", "healthcare", "government", "education", "healthcare"), institution_lineage = c("https://openalex.org/I4210142730", "https://openalex.org/I4210142730", "https://openalex.org/I4210142730", "https://openalex.org/I4210142730", "https://openalex.org/I4210142730", "https://openalex.org/I129902397", "https://openalex.org/I168635309", "https://openalex.org/I4210155492", "https://openalex.org/I31746571", "https://openalex.org/I88273585", 
-"https://openalex.org/I70931966", "https://openalex.org/I4210142730", "https://openalex.org/I4210142730", "https://openalex.org/I4210155492", "https://openalex.org/I70931966", "https://openalex.org/I4210142730"))</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Innovative technology-based solutions have the potential to improve access to clinically proven interventions for cannabis use disorder (CUD) in individuals with first episode psychosis (FEP). High patient engagement with app-based interventions is critical for achieving optimal outcomes. 104 individuals 18 to 35 years old with FEP and CUD from three Canadian provinces completed an electronic survey to evaluate preferences for online psychological intervention intensity, participation autonomy, feedback related to cannabis use, and technology platforms and app functionalities. The development of the questionnaire was informed by a qualitative study that included patients and clinicians. We used Best-Worst Scaling (BWS) and item ranking methodologies to measure preferences. Conditional logistic regression models for BWS data revealed high preferences for moderate intervention intensity (e.g., modules with a length of 15 min) and treatment autonomy that included preferences for using technology-based interventions and receiving feedback related to cannabis use once a week. Luce regression models for rank items revealed high preferences for smartphone-based apps, video intervention components, and having access to synchronous communications with clinicians and gamification elements. Results informed the development of iCanChange (iCC), a smartphone-based intervention for the treatment of CUD in individuals with FEP that is undergoing clinical testing.</t>
+          <t>2023-08-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2023-08-01</t>
+          <t>Psychiatry Research</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Psychiatry Research</t>
+          <t>Elsevier BV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://openalex.org/S84074229</t>
+          <t>https://doi.org/10.1016/j.psychres.2023.115276</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Elsevier BV</t>
+          <t>cc-by-nc-nd</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0165-1781</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>hybrid</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37301021</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
           <t>https://doi.org/10.1016/j.psychres.2023.115276</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cc-by-nc-nd</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>publishedVersion</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>115276</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>115276</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>326</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>TRUE</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>hybrid</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.psychres.2023.115276</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>en</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>https://api.openalex.org/works?filter=cites:W4380190442</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>c(openalex = "https://openalex.org/W4380190442", doi = "https://doi.org/10.1016/j.psychres.2023.115276", pmid = "https://pubmed.ncbi.nlm.nih.gov/37301021")</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.psychres.2023.115276</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
           <t>article</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1969769991", "https://openalex.org/W1973223879", "https://openalex.org/W2032869670", "https://openalex.org/W2090169982", "https://openalex.org/W2098928988", "https://openalex.org/W2106014081", "https://openalex.org/W2116293971", "https://openalex.org/W2116810060", "https://openalex.org/W2118256630", "https://openalex.org/W2257957527", "https://openalex.org/W2267837598", "https://openalex.org/W2327398028", "https://openalex.org/W2433115544", "https://openalex.org/W2552645327", 
-"https://openalex.org/W2555993651", "https://openalex.org/W2562874248", "https://openalex.org/W2774781750", "https://openalex.org/W2792686719", "https://openalex.org/W2884982858", "https://openalex.org/W2909224716", "https://openalex.org/W2947812004", "https://openalex.org/W2955823966", "https://openalex.org/W2981478004", "https://openalex.org/W3010563330", "https://openalex.org/W3017020264", "https://openalex.org/W3099567912", "https://openalex.org/W3135078923", "https://openalex.org/W3136855968", 
-"https://openalex.org/W3164437855", "https://openalex.org/W3201013850", "https://openalex.org/W4239301040", "https://openalex.org/W4246314071", "https://openalex.org/W4285521054", "https://openalex.org/W4301392213", "https://openalex.org/W4310045193", "https://openalex.org/W4315695090")</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>c("https://openalex.org/W1997125430", "https://openalex.org/W4389487452", "https://openalex.org/W2976415515", "https://openalex.org/W4389083382", "https://openalex.org/W4387493736", "https://openalex.org/W4225125982", "https://openalex.org/W4295922487", "https://openalex.org/W1963593520", "https://openalex.org/W2065235060", "https://openalex.org/W4381328000")</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>FALSE</t>
         </is>
       </c>
     </row>

--- a/DOM_Banner/output/dept_banner/Nathan Copeland_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Nathan Copeland_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Psychiatry and Addiction, Faculty of Medicine, Université de Montréal, Montreal, QC, Canada; Lady Davis Institute for Medical Research, Jewish General Hospital, Montreal, QC, Canada; Research Center, Centre Hospitalier de l'Université de Montréal (CRCHUM), Montreal, QC, Canada; Department of Psychiatry and Addiction, Faculty of Medicine, Université de Montréal, Montreal, QC, Canada; Research Center, Centre Hospitalier de l'Université de Montréal (CRCHUM), Montreal, QC, Canada; Research Center, Centre Hospitalier de l'Université de Montréal (CRCHUM), Montreal, QC, Canada; Department of Psychiatry and Addiction, Faculty of Medicine, Université de Montréal, Montreal, QC, Canada; Research Center, Centre Hospitalier de l'Université de Montréal (CRCHUM), Montreal, QC, Canada; Department of Psychiatry and Addiction, Faculty of Medicine, Université de Montréal, Montreal, QC, Canada; Research Center, Centre Hospitalier de l'Université de Montréal (CRCHUM), Montreal, QC, Canada; Department of Psychiatry, Dalhousie University, Halifax, NS, Canada; Nova Scotia Early Psychosis Program, Halifax, NS, Canada; Department of Psychiatry, University of Calgary, Calgary, AB, Canada; Clinique Notre-Dame des Victoires, Institut Universitaire en Santé Mentale, Centre Intégré Universitaire de Soins et Services Sociaux de la Capitale Nationale, Québec, QC, Canada; Department of Psychiatry and Neurosciences, Faculty of Medicine, Laval University, Québec, QC, Canada; National Drug and Alcohol Research Centre, University of New South Wales, Sydney, New South Wales, Australia; Sunshine Coast Mind and Neuroscience - Thompson Institute, University of the Sunshine Coast, Queensland, Australia; Centre for Applied Research in Mental Health and Addiction, Faculty of Health Sciences, Simon Fraser University, Vancouver, Canada; Department of Psychiatry, Federal University of Sao Paulo, Sao Paulo, Brazil; Department of Psychiatry, University of Toronto, Toronto, ON, Canada; Schools of Population Health and Pharmacy, Faculty of Medical and Health Sciences, University of Auckland, Auckland, New Zealand; Centre de Recherche de l'Institut Universitaire en Santé Mentale de Montréal, Montreal, QC, Canada; Department of Psychology, University of Montreal, Montreal, QC, Canada; Faculty of Nursing, Université de Montréal, Montreal, QC, Canada; Research Center, Centre Hospitalier de l'Université de Montréal (CRCHUM), Montreal, QC, Canada; Department of Psychiatry and Addiction, Faculty of Medicine, Université de Montréal, Montreal, QC, Canada; Research Center, Centre Hospitalier de l'Université de Montréal (CRCHUM), Montreal, QC, Canada; Clinique Notre-Dame des Victoires, Institut Universitaire en Santé Mentale, Centre Intégré Universitaire de Soins et Services Sociaux de la Capitale Nationale, Québec, QC, Canada; Department of Psychiatry and Neurosciences, Faculty of Medicine, Laval University, Québec, QC, Canada; Department of Psychiatry and Addiction, Faculty of Medicine, Université de Montréal, Montreal, QC, Canada; Department of Psychiatry and Addiction, Faculty of Medicine, Université de Montréal, Montreal, QC, Canada; Institut universitaire sur les dépendances, Montreal, QC, Canada; Research Center, Centre Hospitalier de l'Université de Montréal (CRCHUM), Montreal, QC, Canada</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380190442</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Evaluating preferences for online psychological interventions to decrease cannabis use in young adults with psychosis: An observational study</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Psychiatry Research</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.psychres.2023.115276</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37301021</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.psychres.2023.115276</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
